--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337329.5177479617</v>
+        <v>331213.0466062789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4007641.22235612</v>
+        <v>3066682.762492663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15407201.08255132</v>
+        <v>14484967.69603913</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6015711.03929022</v>
+        <v>6403276.724036934</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.81855126207265</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7293992974317</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,76 +737,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>119.5504549011778</v>
       </c>
-      <c r="C3" t="n">
+      <c r="U3" t="n">
         <v>135.7293992974317</v>
       </c>
-      <c r="D3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>135.7293992974317</v>
       </c>
-      <c r="E3" t="n">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>135.7293992974317</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C5" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="6">
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T6" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="U6" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>60.09378870120887</v>
       </c>
       <c r="G7" t="n">
-        <v>21.94182076836087</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H7" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I7" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="C8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.99451525021634</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>121.9329941289852</v>
       </c>
       <c r="D9" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E9" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>60.09378870120887</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>81.39848696832989</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G11" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H11" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1500,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V12" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W12" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.09378870120875</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.39848696832995</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>130.2211784494687</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.09378870120875</v>
+        <v>60.09378870120887</v>
       </c>
       <c r="G16" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H16" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J16" t="n">
         <v>59.456666199969</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.13549759392411</v>
       </c>
       <c r="E17" t="n">
-        <v>135.7293992974318</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>135.7293992974318</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>135.7293992974318</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>119.5504549011779</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1920,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>135.7293992974318</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>88.93351440885131</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>119.5504549011779</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>135.7293992974318</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>135.7293992974318</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>135.7293992974318</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>135.7293992974318</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>109.8247558813647</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>25.8696280056908</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>118.4696430024662</v>
+        <v>10.09209246479641</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2223,10 +2225,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.5681621840667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>150.5192271707804</v>
       </c>
       <c r="G23" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>54.50706566888913</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -2415,7 +2417,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>109.3188701181024</v>
+        <v>49.40550599527111</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2533,10 +2535,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W25" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>336.4110169457691</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>192.9109888951693</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2637,22 +2639,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>54.52513321799584</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2688,7 +2690,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>84.270010270391</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2697,7 +2699,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.5681621840667</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.358916260819027</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>218.3273332069601</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>53.64545635071116</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>67.49039165026359</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -2889,7 +2891,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2937,7 +2939,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -2992,31 +2994,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.16685623779799</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14.50387586212008</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>372.5524694572394</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>283.473069099591</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3120,13 +3122,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>107.8584729077394</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>17.2338042167189</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>109.0942100473394</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.4461728255878</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>67.10401331596601</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>269.5266376317735</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3357,10 +3359,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>49.67353352483901</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>167.2155107264657</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>25.5578537124857</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,16 +3508,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>57.58865010757529</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.0888648298624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3584,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>9.311286885644586</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -3597,7 +3599,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
         <v>186.7982527956746</v>
@@ -3639,7 +3641,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>49.40550599527111</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.96816892577734</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>13.48037621410386</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>127.2173885272225</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -3755,7 +3757,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>271.3537645699367</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4995939034842342</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,10 +3830,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>2.562210781157479</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>268.6107013963112</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>119.5504549011779</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.358916260819027</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>135.7293992974318</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>135.7293992974318</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>135.7293992974318</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>77.85029774090341</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>119.5504549011779</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C2" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D2" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E2" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F2" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G2" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H2" t="n">
         <v>10.85835194379454</v>
@@ -4328,52 +4330,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K2" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L2" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M2" t="n">
-        <v>82.85689621660021</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7411328942751</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="O2" t="n">
-        <v>314.1132381987325</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4853435031899</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q2" t="n">
         <v>542.917597189727</v>
       </c>
       <c r="R2" t="n">
-        <v>452.2793106855803</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S2" t="n">
-        <v>452.2793106855803</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T2" t="n">
-        <v>315.1789073548412</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U2" t="n">
-        <v>315.1789073548412</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V2" t="n">
-        <v>178.078504024102</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W2" t="n">
-        <v>40.97810069336288</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X2" t="n">
-        <v>40.97810069336288</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.97810069336288</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C3" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D3" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E3" t="n">
         <v>10.85835194379454</v>
@@ -4410,22 +4412,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K3" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="M3" t="n">
         <v>145.230457248252</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>279.6025625527094</v>
       </c>
-      <c r="M3" t="n">
-        <v>408.5454918852695</v>
-      </c>
-      <c r="N3" t="n">
-        <v>408.5454918852695</v>
-      </c>
       <c r="O3" t="n">
-        <v>408.5454918852695</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="P3" t="n">
-        <v>408.5454918852695</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="Q3" t="n">
         <v>542.917597189727</v>
@@ -4437,22 +4439,22 @@
         <v>542.917597189727</v>
       </c>
       <c r="T3" t="n">
-        <v>542.917597189727</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U3" t="n">
-        <v>542.917597189727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V3" t="n">
-        <v>542.917597189727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W3" t="n">
-        <v>542.917597189727</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X3" t="n">
-        <v>542.917597189727</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y3" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C5" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D5" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E5" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F5" t="n">
         <v>10.85835194379454</v>
@@ -4571,46 +4573,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L5" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M5" t="n">
-        <v>139.8012812763547</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N5" t="n">
-        <v>274.1733865808121</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="O5" t="n">
-        <v>408.5454918852696</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P5" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W5" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X5" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y5" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="6">
@@ -4644,49 +4646,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J6" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K6" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L6" t="n">
-        <v>145.230457248252</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M6" t="n">
-        <v>279.6025625527094</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="N6" t="n">
-        <v>279.6025625527094</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="O6" t="n">
-        <v>279.6025625527094</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q6" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R6" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S6" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T6" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U6" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V6" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W6" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X6" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y6" t="n">
         <v>10.85835194379454</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2798525126768</v>
+        <v>482.2168005218392</v>
       </c>
       <c r="G7" t="n">
-        <v>345.1163971911002</v>
+        <v>345.1163971911001</v>
       </c>
       <c r="H7" t="n">
         <v>208.015993860361</v>
@@ -4726,7 +4728,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L7" t="n">
         <v>145.0696190886975</v>
@@ -4744,31 +4746,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C8" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D8" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4805,49 +4807,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M8" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N8" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O8" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>519.6908141087005</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C9" t="n">
-        <v>519.6908141087005</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="D9" t="n">
-        <v>382.5904107779613</v>
+        <v>282.6525533246593</v>
       </c>
       <c r="E9" t="n">
-        <v>245.4900074472222</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="F9" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G9" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H9" t="n">
         <v>10.85835194379454</v>
@@ -4881,52 +4883,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L9" t="n">
-        <v>145.230457248252</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M9" t="n">
-        <v>274.1733865808121</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N9" t="n">
-        <v>408.5454918852696</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="O9" t="n">
-        <v>542.9175971897271</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="P9" t="n">
-        <v>542.9175971897271</v>
+        <v>474.2288143902729</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y9" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="F10" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218392</v>
       </c>
       <c r="G10" t="n">
-        <v>10.85835194379454</v>
+        <v>345.1163971911001</v>
       </c>
       <c r="H10" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L10" t="n">
         <v>145.0696190886975</v>
@@ -4981,31 +4983,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S10" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T10" t="n">
-        <v>93.07904585119849</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="C11" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="D11" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="E11" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="F11" t="n">
-        <v>268.7167905282488</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G11" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H11" t="n">
         <v>10.85835194379454</v>
@@ -5039,52 +5041,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J11" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K11" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L11" t="n">
         <v>139.8012812763547</v>
       </c>
       <c r="M11" t="n">
+        <v>139.8012812763547</v>
+      </c>
+      <c r="N11" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="N11" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="O11" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P11" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q11" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R11" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S11" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T11" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U11" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V11" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W11" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X11" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y11" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C12" t="n">
         <v>10.85835194379454</v>
@@ -5121,49 +5123,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K12" t="n">
-        <v>205.4846037813581</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L12" t="n">
-        <v>339.8567090858156</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M12" t="n">
-        <v>408.5454918852696</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N12" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O12" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P12" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R12" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S12" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T12" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U12" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V12" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W12" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X12" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F13" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G13" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H13" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I13" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J13" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="K13" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L13" t="n">
         <v>145.0696190886975</v>
@@ -5218,31 +5220,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R13" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S13" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T13" t="n">
-        <v>542.917597189727</v>
+        <v>93.07904585119854</v>
       </c>
       <c r="U13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="C14" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="D14" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="E14" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="F14" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H14" t="n">
         <v>10.85835194379454</v>
@@ -5279,49 +5281,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K14" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L14" t="n">
-        <v>145.230457248252</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M14" t="n">
-        <v>279.6025625527094</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N14" t="n">
-        <v>413.9746678571669</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O14" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P14" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q14" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R14" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S14" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T14" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U14" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V14" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W14" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X14" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y14" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C15" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D15" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="E15" t="n">
-        <v>10.85835194379454</v>
+        <v>274.2806499706356</v>
       </c>
       <c r="F15" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G15" t="n">
         <v>10.85835194379454</v>
@@ -5355,52 +5357,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J15" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K15" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L15" t="n">
-        <v>339.8567090858156</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M15" t="n">
-        <v>339.8567090858156</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N15" t="n">
-        <v>339.8567090858156</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O15" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P15" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q15" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R15" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S15" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T15" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U15" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V15" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W15" t="n">
-        <v>131.6163871975096</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X15" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="16">
@@ -5422,10 +5424,10 @@
         <v>542.917597189727</v>
       </c>
       <c r="F16" t="n">
-        <v>482.2168005218393</v>
+        <v>482.2168005218392</v>
       </c>
       <c r="G16" t="n">
-        <v>345.1163971911002</v>
+        <v>345.1163971911001</v>
       </c>
       <c r="H16" t="n">
         <v>208.015993860361</v>
@@ -5437,7 +5439,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K16" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L16" t="n">
         <v>145.0696190886975</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="C17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="D17" t="n">
-        <v>542.9175971897271</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E17" t="n">
-        <v>405.8171938589879</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F17" t="n">
-        <v>268.7167905282488</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G17" t="n">
-        <v>131.6163871975096</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H17" t="n">
-        <v>10.85835194379454</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J17" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K17" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L17" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M17" t="n">
-        <v>274.1733865808121</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N17" t="n">
-        <v>408.5454918852696</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O17" t="n">
-        <v>542.9175971897271</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P17" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q17" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="Y17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>147.9587552745337</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>10.85835194379454</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="E18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H18" t="n">
-        <v>10.85835194379454</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>10.85835194379454</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>139.8012812763547</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L18" t="n">
-        <v>274.1733865808121</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M18" t="n">
-        <v>274.1733865808121</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N18" t="n">
-        <v>274.1733865808121</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O18" t="n">
-        <v>408.5454918852696</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>422.159561936012</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>422.159561936012</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>422.159561936012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>422.159561936012</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>422.159561936012</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>285.0591586052728</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>147.9587552745337</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K19" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N19" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O19" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>405.8171938589878</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V19" t="n">
-        <v>405.8171938589878</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W19" t="n">
-        <v>268.7167905282487</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>569.0623394968745</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C20" t="n">
-        <v>569.0623394968745</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D20" t="n">
-        <v>569.0623394968745</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E20" t="n">
-        <v>569.0623394968745</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F20" t="n">
-        <v>569.0623394968745</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G20" t="n">
-        <v>152.9583529510625</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
         <v>42.02425610119923</v>
@@ -5774,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T20" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.212805059961</v>
+        <v>1572.855659537694</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.212805059961</v>
+        <v>1572.855659537694</v>
       </c>
       <c r="W20" t="n">
-        <v>1738.677874917562</v>
+        <v>1572.855659537694</v>
       </c>
       <c r="X20" t="n">
-        <v>1356.647734439056</v>
+        <v>1190.825519059187</v>
       </c>
       <c r="Y20" t="n">
-        <v>963.1058790148937</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5853,28 +5855,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T21" t="n">
-        <v>1768.96274310455</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="U21" t="n">
-        <v>1550.46795070286</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V21" t="n">
-        <v>1322.072328151194</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W21" t="n">
-        <v>1080.756459384504</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X21" t="n">
-        <v>1080.756459384504</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="G22" t="n">
-        <v>42.02425610119923</v>
+        <v>173.9112886103575</v>
       </c>
       <c r="H22" t="n">
         <v>42.02425610119923</v>
@@ -5941,19 +5943,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V22" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W22" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.02425610119923</v>
+        <v>342.8310372425075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>886.0098495095747</v>
+        <v>1115.806339245735</v>
       </c>
       <c r="C23" t="n">
-        <v>886.0098495095747</v>
+        <v>1115.806339245735</v>
       </c>
       <c r="D23" t="n">
-        <v>513.1858847367982</v>
+        <v>1115.806339245735</v>
       </c>
       <c r="E23" t="n">
-        <v>513.1858847367982</v>
+        <v>1115.806339245735</v>
       </c>
       <c r="F23" t="n">
-        <v>513.1858847367982</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G23" t="n">
-        <v>97.08189819098624</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J23" t="n">
         <v>114.0228003740049</v>
@@ -6011,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S23" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T23" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U23" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V23" t="n">
-        <v>1673.595244451756</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W23" t="n">
-        <v>1673.595244451756</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="X23" t="n">
-        <v>1673.595244451756</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="Y23" t="n">
-        <v>1280.053389027594</v>
+        <v>1115.806339245735</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T24" t="n">
-        <v>2041.428536154907</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U24" t="n">
-        <v>1822.933743753217</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.510642623821</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="25">
@@ -6181,7 +6183,7 @@
         <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1047.7735472835</v>
+        <v>381.8333641272287</v>
       </c>
       <c r="C26" t="n">
-        <v>1047.7735472835</v>
+        <v>381.8333641272287</v>
       </c>
       <c r="D26" t="n">
-        <v>1047.7735472835</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E26" t="n">
-        <v>652.9878273896065</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G26" t="n">
         <v>42.02425610119923</v>
@@ -6221,16 +6223,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119917</v>
       </c>
       <c r="J26" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K26" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L26" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M26" t="n">
         <v>1095.287711756822</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T26" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U26" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V26" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W26" t="n">
-        <v>1823.345543186168</v>
+        <v>1551.448899547916</v>
       </c>
       <c r="X26" t="n">
-        <v>1441.315402707662</v>
+        <v>1169.41875906941</v>
       </c>
       <c r="Y26" t="n">
-        <v>1047.7735472835</v>
+        <v>775.8769036452478</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D27" t="n">
-        <v>245.1003394612639</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E27" t="n">
-        <v>245.1003394612639</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F27" t="n">
-        <v>110.4065414111382</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G27" t="n">
-        <v>110.4065414111382</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>44.796090196649</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="L27" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1674.606991743342</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1446.211369191676</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
         <v>42.02425610119923</v>
@@ -6415,19 +6417,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>574.0835013471317</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.02425610119923</v>
+        <v>429.3710614964919</v>
       </c>
       <c r="C29" t="n">
-        <v>42.02425610119923</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="D29" t="n">
-        <v>42.02425610119923</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="E29" t="n">
-        <v>42.02425610119923</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119923</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L29" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6494,19 +6496,19 @@
         <v>1598.98659691718</v>
       </c>
       <c r="U29" t="n">
-        <v>1344.101260631174</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V29" t="n">
-        <v>1007.121986527115</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W29" t="n">
-        <v>644.5870563847161</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X29" t="n">
-        <v>262.5569159062094</v>
+        <v>1216.956456438673</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.02425610119923</v>
+        <v>823.414601014511</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>813.8206734913811</v>
+        <v>774.0988341282196</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>612.3951613691743</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>473.5565243593863</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6546,16 +6548,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="L30" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P30" t="n">
         <v>1943.441175274367</v>
@@ -6567,25 +6569,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T30" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U30" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V30" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X30" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y30" t="n">
-        <v>813.8206734913811</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K31" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L31" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M31" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N31" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O31" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q31" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R31" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S31" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T31" t="n">
-        <v>88.6574442201871</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U31" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V31" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W31" t="n">
-        <v>42.02425610119923</v>
+        <v>1815.05640357736</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02425610119923</v>
+        <v>1583.803939472736</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>418.3398818155825</v>
+        <v>840.0620013142038</v>
       </c>
       <c r="C32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G32" t="n">
         <v>42.02425610119923</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T32" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U32" t="n">
-        <v>1568.460206900163</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V32" t="n">
-        <v>1568.460206900163</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W32" t="n">
-        <v>1205.925276757764</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X32" t="n">
-        <v>1205.925276757764</v>
+        <v>1627.647396256385</v>
       </c>
       <c r="Y32" t="n">
-        <v>812.3834213336016</v>
+        <v>1234.105540832223</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>833.1741837486488</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>671.4705109896036</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>532.6318739798156</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>385.6038640366868</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>250.9100659865612</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
@@ -6783,16 +6785,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="L33" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P33" t="n">
         <v>1943.441175274367</v>
@@ -6801,28 +6803,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S33" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T33" t="n">
-        <v>1948.413318072701</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U33" t="n">
-        <v>1729.918525671012</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1624.347809769226</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1383.031941002536</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>1185.114952880331</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>992.5936265299098</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>321.8363974045083</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>152.2204278661885</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>152.2204278661885</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>152.2204278661885</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>152.2204278661885</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>152.2204278661885</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
         <v>42.02425610119923</v>
@@ -6877,31 +6879,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>321.8363974045083</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T34" t="n">
-        <v>321.8363974045083</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U34" t="n">
-        <v>321.8363974045083</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V34" t="n">
-        <v>321.8363974045083</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W34" t="n">
-        <v>321.8363974045083</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X34" t="n">
-        <v>321.8363974045083</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="Y34" t="n">
-        <v>321.8363974045083</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.9580147683919</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G35" t="n">
         <v>42.02425610119923</v>
@@ -6935,19 +6937,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L35" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6968,19 +6970,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U35" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V35" t="n">
-        <v>1574.078339852972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W35" t="n">
-        <v>1211.543409710573</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X35" t="n">
-        <v>1211.543409710573</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y35" t="n">
-        <v>818.001554286411</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>674.4636602520131</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C36" t="n">
-        <v>512.7599874929679</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D36" t="n">
-        <v>373.9213504831799</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E36" t="n">
-        <v>226.8933405400512</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F36" t="n">
-        <v>92.19954248992551</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H36" t="n">
         <v>42.02425610119923</v>
@@ -7017,49 +7019,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L36" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M36" t="n">
-        <v>953.1336013146474</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N36" t="n">
-        <v>1464.39924743777</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O36" t="n">
-        <v>1856.59919822192</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P36" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T36" t="n">
-        <v>1912.527701225946</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U36" t="n">
-        <v>1694.032908824257</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V36" t="n">
-        <v>1465.63728627259</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W36" t="n">
-        <v>1224.321417505901</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X36" t="n">
-        <v>1026.404429383695</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y36" t="n">
-        <v>833.8831030332741</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="E37" t="n">
         <v>42.02425610119923</v>
@@ -7117,28 +7119,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1191.567699435062</v>
+        <v>1648.998911897927</v>
       </c>
       <c r="C38" t="n">
-        <v>809.6339407678688</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D38" t="n">
-        <v>436.8099759950924</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E38" t="n">
-        <v>42.02425610119923</v>
+        <v>872.279433336841</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7196,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="S38" t="n">
-        <v>1913.983829690315</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="T38" t="n">
-        <v>1913.983829690315</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="U38" t="n">
-        <v>1913.983829690315</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="V38" t="n">
-        <v>1913.983829690315</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="W38" t="n">
-        <v>1913.983829690315</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="X38" t="n">
-        <v>1913.983829690315</v>
+        <v>2043.042451415946</v>
       </c>
       <c r="Y38" t="n">
-        <v>1585.611238953081</v>
+        <v>2043.042451415946</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C39" t="n">
-        <v>691.251058534259</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="D39" t="n">
-        <v>552.412421524471</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E39" t="n">
-        <v>405.3844115813423</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F39" t="n">
-        <v>270.6906135312166</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G39" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
         <v>42.02425610119923</v>
@@ -7251,22 +7253,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L39" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M39" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N39" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
         <v>2101.212805059961</v>
@@ -7275,28 +7277,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T39" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U39" t="n">
-        <v>1694.032908824257</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V39" t="n">
-        <v>1644.128357313882</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W39" t="n">
-        <v>1402.812488547192</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X39" t="n">
-        <v>1204.895500424986</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y39" t="n">
-        <v>1012.374174074565</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G40" t="n">
-        <v>1932.293056427811</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H40" t="n">
-        <v>1772.920411207085</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I40" t="n">
-        <v>1628.717366809764</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J40" t="n">
         <v>1569.153559814029</v>
@@ -7360,22 +7362,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>2087.596263429553</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>1800.406023918653</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>1800.406023918653</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>1800.406023918653</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C41" t="n">
-        <v>1913.983829690315</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="D41" t="n">
-        <v>1541.159864917539</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="E41" t="n">
-        <v>1146.374145023646</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F41" t="n">
-        <v>732.222954333816</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G41" t="n">
-        <v>316.118967788004</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H41" t="n">
         <v>42.02425610119923</v>
@@ -7409,19 +7411,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L41" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7436,25 +7438,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>620.7947068344101</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7947068344101</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="G42" t="n">
         <v>210.3443988644402</v>
@@ -7488,52 +7490,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L42" t="n">
-        <v>468.100247804421</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M42" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N42" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O42" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R42" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y42" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K43" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L43" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M43" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N43" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O43" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>1829.888864255606</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>542.9175971897271</v>
+        <v>429.3710614964919</v>
       </c>
       <c r="C44" t="n">
-        <v>422.159561936012</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="D44" t="n">
-        <v>422.159561936012</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="E44" t="n">
-        <v>285.0591586052728</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="F44" t="n">
-        <v>147.9587552745337</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="G44" t="n">
-        <v>10.85835194379454</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="H44" t="n">
-        <v>10.85835194379454</v>
+        <v>47.43730282929926</v>
       </c>
       <c r="I44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>45.36902758981768</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>179.7411328942751</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>179.7411328942751</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>179.7411328942751</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
-        <v>314.1132381987326</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P44" t="n">
-        <v>448.4853435031901</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q44" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S44" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T44" t="n">
-        <v>542.9175971897271</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U44" t="n">
-        <v>542.9175971897271</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V44" t="n">
-        <v>542.9175971897271</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W44" t="n">
-        <v>542.9175971897271</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X44" t="n">
-        <v>542.9175971897271</v>
+        <v>1216.956456438673</v>
       </c>
       <c r="Y44" t="n">
-        <v>542.9175971897271</v>
+        <v>823.414601014511</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>147.9587552745337</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C45" t="n">
-        <v>10.85835194379454</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D45" t="n">
-        <v>10.85835194379454</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E45" t="n">
-        <v>10.85835194379454</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F45" t="n">
-        <v>10.85835194379454</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G45" t="n">
-        <v>10.85835194379454</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>71.11249847690068</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>71.11249847690068</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L45" t="n">
-        <v>139.8012812763547</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M45" t="n">
-        <v>274.1733865808121</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N45" t="n">
-        <v>408.5454918852696</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O45" t="n">
-        <v>542.9175971897271</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P45" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q45" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S45" t="n">
-        <v>405.8171938589879</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T45" t="n">
-        <v>268.7167905282488</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U45" t="n">
-        <v>268.7167905282488</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V45" t="n">
-        <v>268.7167905282488</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W45" t="n">
-        <v>268.7167905282488</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X45" t="n">
-        <v>268.7167905282488</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y45" t="n">
-        <v>147.9587552745337</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>422.1595619360121</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>285.059158605273</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>147.9587552745338</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>10.85835194379457</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>10.85835194379457</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>10.85835194379457</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>10.85835194379457</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>44.46253968843799</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>381.4854669658996</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>479.9491134615893</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>542.9175971897271</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V46" t="n">
-        <v>542.9175971897271</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N2" t="n">
-        <v>284.2609795032149</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O2" t="n">
-        <v>322.6841960775522</v>
+        <v>317.2001799443226</v>
       </c>
       <c r="P2" t="n">
-        <v>323.6062083485882</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,25 +8060,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>248.3048328685795</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>245.7292857258421</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P3" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.4645907423242</v>
+        <v>243.9805746090947</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8219,22 +8221,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M5" t="n">
-        <v>317.4016976613613</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N5" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O5" t="n">
-        <v>322.6841960775522</v>
+        <v>221.8140651094367</v>
       </c>
       <c r="P5" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P6" t="n">
-        <v>239.0995891883455</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8453,22 +8455,22 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>314.5524032714785</v>
+        <v>309.0683871382489</v>
       </c>
       <c r="L8" t="n">
-        <v>321.8055953273168</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485883</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8529,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>245.7292857258421</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N9" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>183.1178003332299</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L11" t="n">
-        <v>321.8055953273168</v>
+        <v>249.0797930315535</v>
       </c>
       <c r="M11" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N11" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O11" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q11" t="n">
         <v>180.6233730229902</v>
@@ -8769,25 +8771,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
-        <v>248.3048328685796</v>
+        <v>181.9580424594852</v>
       </c>
       <c r="M12" t="n">
-        <v>184.8665114499772</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N12" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,25 +8929,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L14" t="n">
-        <v>327.2896114605464</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M14" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N14" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>317.2001799443227</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P14" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,22 +9005,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>248.3048328685796</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O15" t="n">
-        <v>185.2420574994484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
         <v>244.5836053215751</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>317.4016976613613</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,25 +9242,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>242.2415523308688</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>106.7151410677083</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>244.5836053215751</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9419,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9714,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8554040863129</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>217.0424937332492</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9735,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9887,7 +9889,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O26" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P26" t="n">
         <v>418.3383206229274</v>
@@ -9951,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>105.8554040863129</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>324.9477342979506</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10124,7 +10126,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O29" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
         <v>418.3383206229274</v>
@@ -10194,7 +10196,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10206,7 +10208,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10431,7 +10433,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10443,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,7 +10667,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>196.5733747639883</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10917,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11075,7 +11077,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>213.682272303363</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>323.6062083485883</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>181.9580424594851</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360.2845528607663</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -22559,10 +22561,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22604,10 +22606,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>223.1801815435432</v>
+        <v>239.3591259397971</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.27479345227046</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3572367340231</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>1.7208513422583</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>9.828330546265732</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -22677,22 +22679,22 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>67.24779789449683</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="4">
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C5" t="n">
-        <v>242.3850217830889</v>
+        <v>258.5639661793429</v>
       </c>
       <c r="D5" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>290.4592238817535</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -22847,10 +22849,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="6">
@@ -22911,25 +22913,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T6" t="n">
-        <v>51.06885349824287</v>
+        <v>67.24779789449683</v>
       </c>
       <c r="U6" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V6" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>119.3522551778451</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="7">
@@ -22951,16 +22953,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>90.86205972327178</v>
       </c>
       <c r="G7" t="n">
-        <v>145.2887303774676</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H7" t="n">
-        <v>22.04951947108714</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I7" t="n">
-        <v>7.031614655916485</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>270.5526492216611</v>
       </c>
       <c r="C8" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
@@ -23036,10 +23038,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>209.9426067574859</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -23087,7 +23089,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>134.8307331032319</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>38.15364190246964</v>
       </c>
       <c r="D9" t="n">
-        <v>1.720851342258271</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E9" t="n">
-        <v>9.828330546265704</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23115,7 +23117,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -23188,19 +23190,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>90.86205972327178</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>202.9198501474612</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23261,19 +23263,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G11" t="n">
         <v>276.2135473829221</v>
       </c>
       <c r="H11" t="n">
-        <v>209.9426067574859</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I11" t="n">
         <v>171.0890268032919</v>
@@ -23309,7 +23311,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>102.5649019051211</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -23324,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>40.53618113027693</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -23388,19 +23390,19 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>96.75938957649511</v>
       </c>
       <c r="V12" t="n">
-        <v>90.38226702871759</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W12" t="n">
         <v>103.1733107815913</v>
       </c>
       <c r="X12" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -23425,19 +23427,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>90.8620597232719</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>202.9198501474611</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>258.5639661793427</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -23504,13 +23506,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -23543,7 +23545,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>65.80623071477176</v>
       </c>
       <c r="T14" t="n">
         <v>222.1153568062989</v>
@@ -23558,10 +23560,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23577,16 +23579,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>15.33655139422882</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -23628,16 +23630,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>76.38736333980543</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -23662,16 +23664,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>90.8620597232719</v>
+        <v>90.86205972327178</v>
       </c>
       <c r="G16" t="n">
-        <v>31.50115184839672</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H16" t="n">
-        <v>22.04951947108714</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I16" t="n">
-        <v>7.031614655916485</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23735,22 +23737,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>318.9602275311245</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1084633975224</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.2802794854996</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>276.2135473829221</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>209.9426067574859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>222.1153568062989</v>
@@ -23808,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>24.35723673402308</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -23826,10 +23828,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>31.72103721620918</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>60.20841894355158</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>54.86671378948517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.16936009635822</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23944,16 +23946,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>148.5889378183593</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>147.5654381703431</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -23981,10 +23983,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>219.6683057772992</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.3364829231459</v>
+        <v>226.4668549174551</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>68.32860979320844</v>
+        <v>176.7061603308782</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,10 +24141,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>27.21075658445224</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24181,16 +24183,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>259.4904516121509</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.9859959897747</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24260,7 +24262,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>116.7927962080469</v>
+        <v>176.7061603308782</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W25" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>32.68470817927954</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>217.098689887762</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24525,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>82.92511742169421</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>132.0398342072819</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.15165281346935</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -24613,7 +24615,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
         <v>157.7789187685189</v>
@@ -24655,16 +24657,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
@@ -24698,7 +24700,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>165.7301105424729</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>171.2791036629602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24761,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>106.4411796807437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>78.06733819343388</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>238.1514808779931</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>205.3109313575256</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.561951623281288</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -24929,7 +24931,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,16 +24973,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>94.7367699741306</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25008,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>19.58274206920885</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>208.8778621094305</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25090,7 +25092,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
-        <v>48.68470872117949</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
         <v>142.7610139533483</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25141,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>86.36863439405789</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>311.0104077645547</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25208,13 +25210,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>64.08284373124457</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -25245,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77.76768145210926</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.09433375120719</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>124.9310703838086</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25357,13 +25359,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>63.70773940111974</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
         <v>284.3183371157911</v>
@@ -25394,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>32.14325353152989</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -25457,7 +25459,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.51757204005793</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>150.7753491458103</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25485,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>176.7061603308782</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25561,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4884972741916584</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
-        <v>230.8471636524779</v>
+        <v>217.3667874383741</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25612,7 +25614,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25628,7 +25630,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>250.8970325532982</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>58.13929708872712</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25676,7 +25678,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
         <v>222.1153568062989</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.325654449964</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -25716,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>124.8790041957908</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>15.70763571947987</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>258.5639661793427</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>165.7301105424729</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
@@ -25928,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>24.35723673402308</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>15.54209281995534</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>51.06885349824287</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>161.0524123381196</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.04565818573901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,16 +26028,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>31.99071933933708</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26077,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387707.815061752</v>
+        <v>387707.8150617522</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387707.815061752</v>
+        <v>387707.8150617519</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387707.815061752</v>
+        <v>387707.8150617519</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387707.8150617519</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664658.7071156742</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664658.7071156744</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664658.7071156742</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664658.7071156745</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664658.7071156742</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387707.8150617517</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83977.98621274225</v>
+        <v>83977.98621274221</v>
       </c>
       <c r="C2" t="n">
-        <v>83977.98621274224</v>
+        <v>83977.98621274222</v>
       </c>
       <c r="D2" t="n">
-        <v>83977.98621274224</v>
+        <v>83977.98621274217</v>
       </c>
       <c r="E2" t="n">
-        <v>83977.98621274224</v>
+        <v>83977.98621274221</v>
       </c>
       <c r="F2" t="n">
-        <v>83977.98621274224</v>
+        <v>83977.98621274221</v>
       </c>
       <c r="G2" t="n">
-        <v>83977.98621274224</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="H2" t="n">
         <v>143923.1563360338</v>
@@ -26341,19 +26343,19 @@
         <v>143923.1563360338</v>
       </c>
       <c r="L2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="M2" t="n">
         <v>143923.1563360338</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>143923.1563360339</v>
       </c>
-      <c r="N2" t="n">
-        <v>143923.1563360338</v>
-      </c>
       <c r="O2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="P2" t="n">
-        <v>83977.98621274225</v>
+        <v>143923.1563360339</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.04348075321</v>
+        <v>45486.0434807532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106776.3355122783</v>
       </c>
       <c r="H3" t="n">
-        <v>105110.517935065</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93751.32501729493</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>19614.34269859507</v>
       </c>
       <c r="C4" t="n">
-        <v>19614.34269859508</v>
+        <v>19614.34269859507</v>
       </c>
       <c r="D4" t="n">
         <v>19614.34269859507</v>
       </c>
       <c r="E4" t="n">
-        <v>19614.34269859508</v>
+        <v>19614.34269859507</v>
       </c>
       <c r="F4" t="n">
         <v>19614.34269859507</v>
       </c>
       <c r="G4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450602</v>
       </c>
       <c r="H4" t="n">
+        <v>34011.00713450602</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34011.00713450602</v>
+      </c>
+      <c r="J4" t="n">
         <v>34011.00713450603</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34011.00713450603</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34011.00713450602</v>
       </c>
       <c r="K4" t="n">
         <v>34011.00713450602</v>
@@ -26448,16 +26450,16 @@
         <v>34011.00713450603</v>
       </c>
       <c r="M4" t="n">
+        <v>34011.00713450602</v>
+      </c>
+      <c r="N4" t="n">
         <v>34011.00713450603</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34011.00713450602</v>
       </c>
       <c r="O4" t="n">
         <v>34011.00713450602</v>
       </c>
       <c r="P4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450603</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>41879.94747728384</v>
       </c>
       <c r="C5" t="n">
-        <v>41879.94747728385</v>
+        <v>41879.94747728384</v>
       </c>
       <c r="D5" t="n">
-        <v>41879.94747728385</v>
+        <v>41879.94747728384</v>
       </c>
       <c r="E5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="F5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="G5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="H5" t="n">
         <v>31938.43463691141</v>
@@ -26509,7 +26511,7 @@
         <v>31938.43463691141</v>
       </c>
       <c r="P5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23002.34744388988</v>
+        <v>-23002.3474438899</v>
       </c>
       <c r="C6" t="n">
         <v>22483.69603686331</v>
       </c>
       <c r="D6" t="n">
-        <v>22483.69603686332</v>
+        <v>22483.69603686325</v>
       </c>
       <c r="E6" t="n">
-        <v>56111.29603686331</v>
+        <v>56111.29603686329</v>
       </c>
       <c r="F6" t="n">
-        <v>56111.29603686331</v>
+        <v>56111.29603686329</v>
       </c>
       <c r="G6" t="n">
-        <v>56111.29603686331</v>
+        <v>-28802.62094766184</v>
       </c>
       <c r="H6" t="n">
-        <v>-27136.80337044862</v>
+        <v>77973.71456461641</v>
       </c>
       <c r="I6" t="n">
-        <v>77973.7145646164</v>
+        <v>77973.71456461641</v>
       </c>
       <c r="J6" t="n">
-        <v>42460.93161483918</v>
+        <v>42460.93161483917</v>
       </c>
       <c r="K6" t="n">
         <v>77973.71456461638</v>
       </c>
       <c r="L6" t="n">
-        <v>77973.71456461637</v>
+        <v>77973.71456461646</v>
       </c>
       <c r="M6" t="n">
-        <v>77973.71456461643</v>
+        <v>77973.71456461638</v>
       </c>
       <c r="N6" t="n">
-        <v>77973.71456461638</v>
+        <v>77973.71456461646</v>
       </c>
       <c r="O6" t="n">
-        <v>77973.71456461638</v>
+        <v>-15777.61045267846</v>
       </c>
       <c r="P6" t="n">
-        <v>56111.29603686333</v>
+        <v>77973.71456461646</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>135.7293992974317</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="H4" t="n">
         <v>525.3032012649903</v>
@@ -26829,7 +26831,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="H4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N2" t="n">
-        <v>97.86286533098475</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O2" t="n">
-        <v>135.7293992974317</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>135.7293992974317</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>135.7293992974317</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>135.7293992974317</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M5" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N5" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O5" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931628</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>69.38260888833739</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P6" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L8" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O8" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.2453831642022</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="M11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O11" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>135.7293992974318</v>
+        <v>69.38260888833739</v>
       </c>
       <c r="M12" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L14" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931631</v>
       </c>
       <c r="M14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O15" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>130.2453831642022</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>135.7293992974318</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>135.7293992974318</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>135.7293992974318</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>101.5585911716093</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36455,7 +36457,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O26" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P26" t="n">
         <v>230.4615115717709</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36692,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -36844,7 +36846,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O29" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P29" t="n">
         <v>230.4615115717709</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36926,7 +36928,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q30" t="n">
         <v>159.3652826117113</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37163,7 +37165,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q33" t="n">
         <v>159.3652826117113</v>
@@ -37324,7 +37326,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
@@ -37400,10 +37402,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>87.71916873984496</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37637,7 +37639,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
@@ -37795,7 +37797,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37874,10 +37876,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>34.85926832931629</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>135.7293992974318</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7293992974318</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.38260888833736</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>135.7293992974318</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331213.0466062789</v>
+        <v>255953.4927830764</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3066682.762492663</v>
+        <v>714286.6128340093</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14484967.69603913</v>
+        <v>12179384.22975867</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6403276.724036934</v>
+        <v>7685530.336511064</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>57.98989936729292</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>135.7293992974317</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35.58426451757407</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>119.5504549011778</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7293992974317</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>135.7293992974317</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>135.7293992974317</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.94182076836098</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.7293992974317</v>
+        <v>387.504742167081</v>
       </c>
       <c r="C5" t="n">
-        <v>119.5504549011778</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>135.7293992974317</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>119.5504549011778</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>135.7293992974317</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.7293992974317</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.6055084580363</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60.09378870120887</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>135.7293992974317</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.7293992974317</v>
+        <v>19.50177889953585</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>121.9329941289852</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>135.7293992974317</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>135.7293992974317</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>206.832031930172</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60.09378870120887</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>288.3632177910816</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>135.7293992974317</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>119.5504549011778</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>135.7293992974317</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>119.5504549011778</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>135.7293992974317</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>135.7293992974317</v>
+        <v>71.01169366221249</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>81.39848696832995</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>135.7293992974317</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>119.5880123911696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5504549011778</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>135.7293992974317</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>130.2211784494687</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1703,10 +1703,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>69.33826150006736</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.09378870120887</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7293992974317</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.13549759392411</v>
+        <v>351.3543355814902</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
@@ -1861,10 +1861,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>88.93351440885131</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1982,10 +1982,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>220.6097536174545</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>243.4438153256983</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>21.86127392282639</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
-        <v>25.8696280056908</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T21" t="n">
-        <v>10.09209246479641</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.5681621840667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>150.5192271707804</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>66.60734606304729</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2456,7 +2456,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>49.40550599527111</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2535,10 +2535,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>242.420315677682</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>336.4110169457691</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>79.92515991800884</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -2645,13 +2645,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>84.270010270391</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2699,7 +2699,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.6107013963115</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.358916260819027</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>17.74485421847207</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -2879,16 +2879,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>67.49039165026359</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.50387586212008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>50.3066314901601</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>283.473069099591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>107.8584729077394</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>114.8824974878476</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.4461728255878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>67.10401331596601</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>261.622431942385</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3359,10 +3359,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>35.85229204714164</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>167.2155107264657</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>25.5578537124857</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.58865010757529</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>28.23102876584769</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>9.311286885644586</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.48037621410386</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>284.3183371157911</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>127.2173885272225</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3754,10 +3754,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>350.4420718070961</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G42" t="n">
-        <v>2.562210781157479</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.358916260819027</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>213.5877143817972</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>85.20029420312638</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>77.85029774090341</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>242.420315677682</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.0591586052728</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C2" t="n">
-        <v>285.0591586052728</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D2" t="n">
-        <v>285.0591586052728</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E2" t="n">
-        <v>285.0591586052728</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F2" t="n">
-        <v>285.0591586052728</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G2" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>413.9746678571668</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
-        <v>542.917597189727</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P2" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q2" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>405.8171938589878</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>405.8171938589878</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>405.8171938589878</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>285.0591586052728</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X2" t="n">
-        <v>285.0591586052728</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y2" t="n">
-        <v>285.0591586052728</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.85835194379454</v>
+        <v>750.0597958164194</v>
       </c>
       <c r="C3" t="n">
-        <v>10.85835194379454</v>
+        <v>588.3561230573741</v>
       </c>
       <c r="D3" t="n">
-        <v>10.85835194379454</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E3" t="n">
-        <v>10.85835194379454</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F3" t="n">
-        <v>10.85835194379454</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G3" t="n">
-        <v>10.85835194379454</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L3" t="n">
-        <v>10.85835194379454</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M3" t="n">
-        <v>145.230457248252</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N3" t="n">
-        <v>279.6025625527094</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O3" t="n">
-        <v>413.9746678571668</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P3" t="n">
-        <v>413.9746678571668</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q3" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>422.159561936012</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U3" t="n">
-        <v>285.0591586052728</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V3" t="n">
-        <v>285.0591586052728</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="W3" t="n">
-        <v>147.9587552745337</v>
+        <v>1299.917553070307</v>
       </c>
       <c r="X3" t="n">
-        <v>147.9587552745337</v>
+        <v>1102.000564948102</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.85835194379454</v>
+        <v>909.4792385976804</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>345.1163971911001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>367.2798525126768</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="T4" t="n">
-        <v>367.2798525126768</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.2798525126768</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.6163871975095</v>
+        <v>840.0620013142038</v>
       </c>
       <c r="C5" t="n">
-        <v>10.85835194379454</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D5" t="n">
-        <v>10.85835194379454</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E5" t="n">
-        <v>10.85835194379454</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85835194379454</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K5" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>145.230457248252</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
-        <v>413.9746678571668</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O5" t="n">
-        <v>448.4853435031899</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4853435031899</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q5" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>542.917597189727</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>542.917597189727</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>542.917597189727</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>542.917597189727</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V5" t="n">
-        <v>542.917597189727</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W5" t="n">
-        <v>542.917597189727</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="X5" t="n">
-        <v>405.8171938589878</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="Y5" t="n">
-        <v>268.7167905282487</v>
+        <v>1231.480932796104</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.85835194379454</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C6" t="n">
-        <v>10.85835194379454</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D6" t="n">
-        <v>10.85835194379454</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E6" t="n">
-        <v>10.85835194379454</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F6" t="n">
-        <v>10.85835194379454</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>71.11249847690068</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>71.11249847690068</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>139.8012812763547</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
-        <v>274.1733865808121</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852695</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>542.917597189727</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>405.8171938589878</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T6" t="n">
-        <v>285.0591586052728</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U6" t="n">
-        <v>147.9587552745337</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>147.9587552745337</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W6" t="n">
-        <v>147.9587552745337</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X6" t="n">
-        <v>147.9587552745337</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.85835194379454</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.917597189727</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="C7" t="n">
-        <v>542.917597189727</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="D7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>482.2168005218392</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>345.1163971911001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L7" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V7" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W7" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X7" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.917597189727</v>
+        <v>64.85810302850862</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147.9587552745337</v>
+        <v>1302.420452735063</v>
       </c>
       <c r="C8" t="n">
-        <v>147.9587552745337</v>
+        <v>920.4866940678704</v>
       </c>
       <c r="D8" t="n">
-        <v>147.9587552745337</v>
+        <v>547.662729295094</v>
       </c>
       <c r="E8" t="n">
-        <v>10.85835194379454</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F8" t="n">
-        <v>10.85835194379454</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G8" t="n">
-        <v>10.85835194379454</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>10.85835194379454</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>139.8012812763547</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>139.8012812763547</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>139.8012812763547</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>274.1733865808121</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>408.5454918852695</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>542.917597189727</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>542.917597189727</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U8" t="n">
-        <v>405.8171938589878</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V8" t="n">
-        <v>405.8171938589878</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="W8" t="n">
-        <v>405.8171938589878</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="X8" t="n">
-        <v>405.8171938589878</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="Y8" t="n">
-        <v>268.7167905282487</v>
+        <v>1302.420452735063</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.917597189727</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="C9" t="n">
-        <v>419.7529566553985</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>282.6525533246593</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5521499939202</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813581</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>339.8567090858155</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>339.8567090858155</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>474.2288143902729</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>542.917597189727</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>542.917597189727</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V9" t="n">
-        <v>542.917597189727</v>
+        <v>1550.806969864776</v>
       </c>
       <c r="W9" t="n">
-        <v>542.917597189727</v>
+        <v>1309.491101098085</v>
       </c>
       <c r="X9" t="n">
-        <v>542.917597189727</v>
+        <v>1111.57411297588</v>
       </c>
       <c r="Y9" t="n">
-        <v>542.917597189727</v>
+        <v>919.052786625459</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>482.2168005218392</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>345.1163971911001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L10" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M10" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O10" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.159561936012</v>
+        <v>1120.275389130554</v>
       </c>
       <c r="C11" t="n">
-        <v>422.159561936012</v>
+        <v>828.9994115638053</v>
       </c>
       <c r="D11" t="n">
-        <v>422.159561936012</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="E11" t="n">
-        <v>422.159561936012</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G11" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H11" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K11" t="n">
-        <v>82.85689621660021</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L11" t="n">
-        <v>139.8012812763547</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M11" t="n">
-        <v>139.8012812763547</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N11" t="n">
-        <v>274.1733865808121</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O11" t="n">
-        <v>408.5454918852695</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P11" t="n">
-        <v>542.917597189727</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q11" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>422.159561936012</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U11" t="n">
-        <v>422.159561936012</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V11" t="n">
-        <v>422.159561936012</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W11" t="n">
-        <v>422.159561936012</v>
+        <v>1514.318928648574</v>
       </c>
       <c r="X11" t="n">
-        <v>422.159561936012</v>
+        <v>1514.318928648574</v>
       </c>
       <c r="Y11" t="n">
-        <v>422.159561936012</v>
+        <v>1514.318928648574</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.85835194379454</v>
+        <v>691.251058534259</v>
       </c>
       <c r="C12" t="n">
-        <v>10.85835194379454</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D12" t="n">
-        <v>10.85835194379454</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E12" t="n">
-        <v>10.85835194379454</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F12" t="n">
-        <v>10.85835194379454</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G12" t="n">
-        <v>10.85835194379454</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L12" t="n">
-        <v>139.8012812763547</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M12" t="n">
-        <v>139.8012812763547</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N12" t="n">
-        <v>274.1733865808121</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O12" t="n">
-        <v>408.5454918852695</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P12" t="n">
-        <v>542.917597189727</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>405.8171938589878</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>285.0591586052728</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>147.9587552745337</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>10.85835194379454</v>
+        <v>1241.108815788146</v>
       </c>
       <c r="X12" t="n">
-        <v>10.85835194379454</v>
+        <v>1043.191827665941</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.85835194379454</v>
+        <v>850.6705013155199</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K13" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L13" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O13" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P13" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>230.1794491819377</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>93.07904585119854</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>10.85835194379454</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V13" t="n">
-        <v>10.85835194379454</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.159561936012</v>
+        <v>868.4654673889589</v>
       </c>
       <c r="C14" t="n">
-        <v>422.159561936012</v>
+        <v>868.4654673889589</v>
       </c>
       <c r="D14" t="n">
-        <v>422.159561936012</v>
+        <v>495.6415026161825</v>
       </c>
       <c r="E14" t="n">
-        <v>422.159561936012</v>
+        <v>495.6415026161825</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0591586052728</v>
+        <v>495.6415026161825</v>
       </c>
       <c r="G14" t="n">
-        <v>147.9587552745337</v>
+        <v>495.6415026161825</v>
       </c>
       <c r="H14" t="n">
-        <v>10.85835194379454</v>
+        <v>162.8202282134918</v>
       </c>
       <c r="I14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K14" t="n">
-        <v>145.230457248252</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L14" t="n">
-        <v>179.7411328942751</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M14" t="n">
-        <v>179.7411328942751</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N14" t="n">
-        <v>179.7411328942751</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O14" t="n">
-        <v>314.1132381987325</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P14" t="n">
-        <v>448.4853435031899</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q14" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>542.917597189727</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>422.159561936012</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T14" t="n">
-        <v>422.159561936012</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U14" t="n">
-        <v>422.159561936012</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V14" t="n">
-        <v>422.159561936012</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W14" t="n">
-        <v>422.159561936012</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X14" t="n">
-        <v>422.159561936012</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="Y14" t="n">
-        <v>422.159561936012</v>
+        <v>868.4654673889589</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.917597189727</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C15" t="n">
-        <v>542.917597189727</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D15" t="n">
-        <v>405.8171938589878</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E15" t="n">
-        <v>274.2806499706356</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F15" t="n">
-        <v>139.58685192051</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G15" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H15" t="n">
-        <v>10.85835194379454</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K15" t="n">
-        <v>10.85835194379454</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L15" t="n">
-        <v>139.8012812763547</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M15" t="n">
-        <v>274.1733865808121</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N15" t="n">
-        <v>408.5454918852695</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O15" t="n">
-        <v>408.5454918852695</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>542.917597189727</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>542.917597189727</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>542.917597189727</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>542.917597189727</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>542.917597189727</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="W15" t="n">
-        <v>542.917597189727</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X15" t="n">
-        <v>542.917597189727</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y15" t="n">
-        <v>542.917597189727</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>482.2168005218392</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>345.1163971911001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K16" t="n">
-        <v>44.46253968843795</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L16" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O16" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P16" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>542.917597189727</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S16" t="n">
-        <v>542.917597189727</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.917597189727</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="C17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="D17" t="n">
-        <v>1772.703626424629</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E17" t="n">
-        <v>1377.917906530736</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F17" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
         <v>114.0228003740049</v>
@@ -5539,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>1823.345543186168</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="Y17" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D18" t="n">
-        <v>210.3443988644402</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E18" t="n">
-        <v>210.3443988644402</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F18" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G18" t="n">
         <v>210.3443988644402</v>
@@ -5594,52 +5594,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L18" t="n">
-        <v>468.100247804421</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M18" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N18" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O18" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V18" t="n">
-        <v>1253.053530380276</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W19" t="n">
         <v>42.02425610119923</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>796.7819795411683</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="C20" t="n">
-        <v>414.8482208739757</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G20" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H20" t="n">
         <v>42.02425610119923</v>
@@ -5752,19 +5752,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U20" t="n">
-        <v>1572.855659537694</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V20" t="n">
-        <v>1572.855659537694</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W20" t="n">
-        <v>1572.855659537694</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.825519059187</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="Y20" t="n">
-        <v>1190.825519059187</v>
+        <v>1621.968522504967</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>852.9547312933042</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C21" t="n">
-        <v>691.251058534259</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D21" t="n">
-        <v>552.412421524471</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E21" t="n">
-        <v>405.3844115813423</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F21" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
         <v>42.02425610119923</v>
@@ -5831,22 +5831,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L21" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M21" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N21" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O21" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P21" t="n">
         <v>2101.212805059961</v>
@@ -5858,25 +5858,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>2101.212805059961</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T21" t="n">
-        <v>2091.018772267238</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U21" t="n">
-        <v>1872.523979865548</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V21" t="n">
-        <v>1644.128357313882</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W21" t="n">
-        <v>1402.812488547192</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X21" t="n">
-        <v>1204.895500424986</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y21" t="n">
-        <v>1012.374174074565</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>173.9112886103575</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
         <v>42.02425610119923</v>
@@ -5943,19 +5943,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V22" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W22" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1115.806339245735</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="C23" t="n">
-        <v>1115.806339245735</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="D23" t="n">
-        <v>1115.806339245735</v>
+        <v>1334.345300769166</v>
       </c>
       <c r="E23" t="n">
-        <v>1115.806339245735</v>
+        <v>939.5595808752726</v>
       </c>
       <c r="F23" t="n">
-        <v>963.766715840906</v>
+        <v>525.4083901854428</v>
       </c>
       <c r="G23" t="n">
-        <v>547.662729295094</v>
+        <v>109.3044036396308</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>109.3044036396308</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
         <v>114.0228003740049</v>
@@ -6022,19 +6022,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U23" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V23" t="n">
-        <v>1509.348194669897</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W23" t="n">
-        <v>1509.348194669897</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X23" t="n">
-        <v>1509.348194669897</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y23" t="n">
-        <v>1115.806339245735</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>852.9547312933042</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>552.412421524471</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
         <v>42.02425610119923</v>
@@ -6077,16 +6077,16 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O24" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P24" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6095,25 +6095,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>1912.527701225946</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1694.032908824257</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1644.128357313882</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1402.812488547192</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1204.895500424986</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>1012.374174074565</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6183,7 +6183,7 @@
         <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.8333641272287</v>
+        <v>1232.894925352115</v>
       </c>
       <c r="C26" t="n">
-        <v>381.8333641272287</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D26" t="n">
-        <v>42.02425610119923</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E26" t="n">
-        <v>42.02425610119923</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F26" t="n">
         <v>42.02425610119923</v>
@@ -6223,16 +6223,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119917</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J26" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K26" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L26" t="n">
-        <v>702.0485455037339</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M26" t="n">
         <v>1095.287711756822</v>
@@ -6253,25 +6253,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T26" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U26" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V26" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W26" t="n">
-        <v>1551.448899547916</v>
+        <v>2020.480320294296</v>
       </c>
       <c r="X26" t="n">
-        <v>1169.41875906941</v>
+        <v>2020.480320294296</v>
       </c>
       <c r="Y26" t="n">
-        <v>775.8769036452478</v>
+        <v>1626.938464870134</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>852.9547312933042</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C27" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D27" t="n">
-        <v>552.412421524471</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E27" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F27" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G27" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H27" t="n">
         <v>42.02425610119923</v>
@@ -6308,22 +6308,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>252.8463055811703</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L27" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M27" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N27" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O27" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P27" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6338,19 +6338,19 @@
         <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1674.606991743342</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V27" t="n">
-        <v>1446.211369191676</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W27" t="n">
-        <v>1204.895500424986</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X27" t="n">
-        <v>1204.895500424986</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.374174074565</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>302.7595605427766</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W28" t="n">
         <v>42.02425610119923</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>429.3710614964919</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C29" t="n">
-        <v>47.43730282929926</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D29" t="n">
-        <v>47.43730282929926</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E29" t="n">
-        <v>47.43730282929926</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F29" t="n">
-        <v>47.43730282929926</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G29" t="n">
-        <v>47.43730282929926</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>47.43730282929926</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U29" t="n">
-        <v>1598.98659691718</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V29" t="n">
-        <v>1598.98659691718</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W29" t="n">
-        <v>1598.98659691718</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="X29" t="n">
-        <v>1216.956456438673</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="Y29" t="n">
-        <v>823.414601014511</v>
+        <v>1267.065153230734</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>774.0988341282196</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C30" t="n">
-        <v>612.3951613691743</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D30" t="n">
-        <v>473.5565243593863</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E30" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F30" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
         <v>42.02425610119923</v>
@@ -6545,19 +6545,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L30" t="n">
-        <v>407.8461012713149</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M30" t="n">
-        <v>892.8794547815413</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N30" t="n">
-        <v>1404.145100904663</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O30" t="n">
-        <v>1796.345051688814</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P30" t="n">
         <v>1943.441175274367</v>
@@ -6566,28 +6566,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>1852.743432320892</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1634.248639919202</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1405.853017367536</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1164.537148600846</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>966.6201604786407</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y30" t="n">
-        <v>774.0988341282196</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K31" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L31" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M31" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N31" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O31" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V31" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W31" t="n">
-        <v>1815.05640357736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>1583.803939472736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>840.0620013142038</v>
+        <v>1565.716199754806</v>
       </c>
       <c r="C32" t="n">
-        <v>458.1282426470112</v>
+        <v>1183.782441087613</v>
       </c>
       <c r="D32" t="n">
-        <v>458.1282426470112</v>
+        <v>1183.782441087613</v>
       </c>
       <c r="E32" t="n">
-        <v>458.1282426470112</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="F32" t="n">
-        <v>458.1282426470112</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
         <v>42.02425610119923</v>
@@ -6724,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S32" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T32" t="n">
-        <v>1913.983829690315</v>
+        <v>1959.759739272825</v>
       </c>
       <c r="U32" t="n">
-        <v>1913.983829690315</v>
+        <v>1959.759739272825</v>
       </c>
       <c r="V32" t="n">
-        <v>1913.983829690315</v>
+        <v>1959.759739272825</v>
       </c>
       <c r="W32" t="n">
-        <v>1913.983829690315</v>
+        <v>1959.759739272825</v>
       </c>
       <c r="X32" t="n">
-        <v>1627.647396256385</v>
+        <v>1959.759739272825</v>
       </c>
       <c r="Y32" t="n">
-        <v>1234.105540832223</v>
+        <v>1959.759739272825</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>833.1741837486488</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C33" t="n">
-        <v>671.4705109896036</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D33" t="n">
-        <v>532.6318739798156</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E33" t="n">
-        <v>385.6038640366868</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F33" t="n">
-        <v>250.9100659865612</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G33" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
         <v>42.02425610119923</v>
@@ -6779,22 +6779,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L33" t="n">
-        <v>407.8461012713149</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M33" t="n">
-        <v>892.8794547815413</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N33" t="n">
-        <v>1404.145100904663</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O33" t="n">
-        <v>1796.345051688814</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P33" t="n">
         <v>1943.441175274367</v>
@@ -6806,25 +6806,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S33" t="n">
-        <v>2041.428536154907</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T33" t="n">
-        <v>1852.743432320892</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="U33" t="n">
-        <v>1852.743432320892</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V33" t="n">
-        <v>1624.347809769226</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W33" t="n">
-        <v>1383.031941002536</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X33" t="n">
-        <v>1185.114952880331</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y33" t="n">
-        <v>992.5936265299098</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="34">
@@ -6885,25 +6885,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>360.3737387508193</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V34" t="n">
-        <v>360.3737387508193</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W34" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X34" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.5796247855791</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1707.670949635799</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C35" t="n">
-        <v>1639.88911800351</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D35" t="n">
         <v>1267.065153230734</v>
@@ -6937,7 +6937,7 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K35" t="n">
         <v>354.1631724187873</v>
@@ -6961,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="X35" t="n">
-        <v>2101.212805059961</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="Y35" t="n">
-        <v>1707.670949635799</v>
+        <v>1267.065153230734</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>852.9547312933042</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C36" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D36" t="n">
-        <v>552.412421524471</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E36" t="n">
-        <v>405.3844115813423</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="F36" t="n">
-        <v>270.6906135312166</v>
+        <v>78.23869251245341</v>
       </c>
       <c r="G36" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H36" t="n">
         <v>42.02425610119923</v>
@@ -7019,49 +7019,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L36" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O36" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P36" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T36" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U36" t="n">
-        <v>1872.523979865548</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V36" t="n">
-        <v>1644.128357313882</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W36" t="n">
-        <v>1402.812488547192</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X36" t="n">
-        <v>1204.895500424986</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y36" t="n">
-        <v>1012.374174074565</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C37" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D37" t="n">
-        <v>67.84026995219489</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E37" t="n">
         <v>42.02425610119923</v>
@@ -7128,19 +7128,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V37" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W37" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X37" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y37" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1648.998911897927</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C38" t="n">
         <v>1267.065153230734</v>
@@ -7159,22 +7159,22 @@
         <v>1267.065153230734</v>
       </c>
       <c r="E38" t="n">
-        <v>872.279433336841</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F38" t="n">
-        <v>458.1282426470113</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J38" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2043.042451415946</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>2043.042451415946</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T38" t="n">
-        <v>2043.042451415946</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U38" t="n">
-        <v>2043.042451415946</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="V38" t="n">
-        <v>2043.042451415946</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="W38" t="n">
-        <v>2043.042451415946</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="X38" t="n">
-        <v>2043.042451415946</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="Y38" t="n">
-        <v>2043.042451415946</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C39" t="n">
-        <v>452.4745640711691</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D39" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E39" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F39" t="n">
-        <v>170.7527560779147</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G39" t="n">
         <v>42.02425610119923</v>
@@ -7277,28 +7277,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T39" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y39" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2087.596263429553</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>1800.406023918653</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>1800.406023918653</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W40" t="n">
-        <v>1800.406023918653</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2101.212805059961</v>
+        <v>1204.943057399161</v>
       </c>
       <c r="C41" t="n">
-        <v>1972.710392406201</v>
+        <v>1204.943057399161</v>
       </c>
       <c r="D41" t="n">
-        <v>1599.886427633425</v>
+        <v>1204.943057399161</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.100707739532</v>
+        <v>810.1573375052674</v>
       </c>
       <c r="F41" t="n">
-        <v>790.949517049702</v>
+        <v>396.0061468154377</v>
       </c>
       <c r="G41" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H41" t="n">
         <v>42.02425610119923</v>
@@ -7411,7 +7411,7 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
         <v>354.1631724187873</v>
@@ -7435,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         <v>359.9605005057078</v>
       </c>
       <c r="D42" t="n">
-        <v>359.9605005057078</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E42" t="n">
-        <v>212.9324905625791</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F42" t="n">
-        <v>212.9324905625791</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7493,19 +7493,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L42" t="n">
-        <v>252.8463055811703</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M42" t="n">
-        <v>737.8796590913968</v>
+        <v>756.5481621716143</v>
       </c>
       <c r="N42" t="n">
-        <v>1249.145305214519</v>
+        <v>1267.813808294736</v>
       </c>
       <c r="O42" t="n">
-        <v>1641.34525599867</v>
+        <v>1660.013759078887</v>
       </c>
       <c r="P42" t="n">
         <v>1943.441175274367</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>429.3710614964919</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C44" t="n">
-        <v>47.43730282929926</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D44" t="n">
-        <v>47.43730282929926</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E44" t="n">
-        <v>47.43730282929926</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F44" t="n">
-        <v>47.43730282929926</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G44" t="n">
-        <v>47.43730282929926</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>47.43730282929926</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119923</v>
@@ -7651,16 +7651,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L44" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7672,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U44" t="n">
-        <v>1598.98659691718</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="V44" t="n">
-        <v>1598.98659691718</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="W44" t="n">
-        <v>1598.98659691718</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="X44" t="n">
-        <v>1216.956456438673</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="Y44" t="n">
-        <v>823.414601014511</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>852.9547312933042</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C45" t="n">
-        <v>691.251058534259</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D45" t="n">
-        <v>552.412421524471</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E45" t="n">
-        <v>405.3844115813423</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F45" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
         <v>42.02425610119923</v>
@@ -7727,22 +7727,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L45" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M45" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N45" t="n">
-        <v>1404.145100904663</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O45" t="n">
-        <v>1796.345051688814</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P45" t="n">
         <v>1943.441175274367</v>
@@ -7751,28 +7751,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U45" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V45" t="n">
-        <v>1481.449152931943</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W45" t="n">
-        <v>1402.812488547192</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X45" t="n">
-        <v>1204.895500424986</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.374174074565</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V46" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W46" t="n">
         <v>42.02425610119923</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>327.2896114605463</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>317.2001799443226</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8063,22 +8063,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>251.2133018590716</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>243.9805746090947</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>327.2896114605463</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>221.8140651094367</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8297,25 +8297,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>176.0977499560457</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423242</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>309.0683871382489</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O8" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8534,25 +8534,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590716</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N9" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>183.1178003332299</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>249.0797930315535</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>187.1563144971591</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>322.1275134696618</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8774,22 +8774,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
-        <v>181.9580424594852</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>251.5888479085428</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L14" t="n">
-        <v>226.4194804924309</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>323.6062083485882</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9008,22 +9008,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L15" t="n">
-        <v>242.82081673535</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>251.2133018590716</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>113.7351914448925</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>111.9961691666667</v>
@@ -9251,7 +9251,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>448.8511326829348</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9260,10 +9260,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9421,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9497,7 +9497,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>113.7351914448925</v>
@@ -9725,7 +9725,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>217.0424937332492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,16 +9956,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>324.9477342979506</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10129,7 +10129,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10193,7 +10193,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10205,10 +10205,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>428.7943191257726</v>
       </c>
       <c r="P30" t="n">
-        <v>257.4361490398531</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10445,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>257.4361490398531</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10667,10 +10667,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11141,10 +11141,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>325.5269987024317</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11156,7 +11156,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>395.1445254135168</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11387,13 +11387,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>257.4361490398531</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>332.113204755546</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -22555,16 +22555,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>276.2135473829221</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>193.7636623612321</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22600,7 +22600,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886719</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -22609,13 +22609,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>239.3591259397971</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>101.865986122116</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -22676,25 +22676,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>67.24779789449683</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>80.58044518024118</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.8667137894852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>145.2887303774675</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>22.04951947108717</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>7.031614655916513</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.3737048254072</v>
+        <v>2.598361955757923</v>
       </c>
       <c r="C5" t="n">
-        <v>258.5639661793429</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -22798,7 +22798,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15.54209281995537</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>67.24779789449683</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>80.58044518024118</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.8667137894852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22947,25 +22947,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>128.9356657824786</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>90.86205972327178</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>31.50115184839674</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>22.04951947108717</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>7.031614655916513</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23010,7 +23010,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.5526492216611</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>255.1084633975225</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
@@ -23038,10 +23038,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>116.6070836257142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -23089,7 +23089,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.8770375724886</v>
+        <v>370.1046579703845</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>38.15364190246964</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7208513422583</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>9.828330546265732</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>19.27963439597735</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,19 +23190,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>90.86205972327178</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839674</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108717</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916513</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>244.6475751830577</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>89.75120328943905</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>274.2802794854996</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>193.7636623612321</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
         <v>171.0890268032919</v>
@@ -23311,7 +23311,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>102.5649019051211</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.3364829231459</v>
@@ -23320,7 +23320,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -23387,25 +23387,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>51.0688534982429</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>96.75938957649511</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>90.38226702871762</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.1733107815913</v>
+        <v>167.8910164168105</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>12.29716427433382</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>75.84326567291757</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>95.11776435504621</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>202.9198501474611</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23500,22 +23500,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>193.7636623612321</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>51.50101441212234</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.80623071477176</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7208513422583</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.33655139422882</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>156.773404826082</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>90.86205972327178</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>31.50115184839674</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>22.04951947108717</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>7.031614655916513</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
@@ -23737,7 +23737,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>318.9602275311245</v>
+        <v>17.74138954355845</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23816,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>48.51673623083873</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>18.29295646156851</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>40.87452179009284</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>347.2344512022223</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>226.4668549174551</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24034,7 +24034,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -24098,10 +24098,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T21" t="n">
-        <v>176.7061603308782</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>27.21075658445224</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24183,16 +24183,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>259.4904516121509</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>104.4816807402447</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -24274,7 +24274,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -24335,7 +24335,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>176.7061603308782</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>32.68470817927954</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
@@ -24493,7 +24493,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
         <v>222.1153568062989</v>
@@ -24505,10 +24505,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>278.9844209229661</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>132.0398342072819</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>15.70763571947964</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>165.7301105424729</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>341.1647266225029</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>78.06733819343388</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.3109313575256</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>171.0890268032919</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>171.8087253161388</v>
       </c>
       <c r="U32" t="n">
         <v>252.3364829231459</v>
@@ -24982,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>94.7367699741306</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>19.58274206920885</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>71.91575530782707</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25125,25 +25125,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>86.36863439405789</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>311.0104077645547</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25219,10 +25219,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>116.5874071313366</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>91.58892292980661</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.09433375120719</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>124.9310703838086</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25368,13 +25368,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>32.14325353152989</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>224.1054541572982</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25472,19 +25472,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>150.7753491458103</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
-        <v>217.3667874383741</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>250.8970325532982</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>61.50087487325783</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G42" t="n">
-        <v>124.8790041957908</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>165.7301105424729</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>38.74876854134874</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25930,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>101.5979585925483</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>161.0524123381196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>40.8745217900929</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387707.8150617522</v>
+        <v>664658.7071156742</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387707.815061752</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387707.8150617519</v>
+        <v>664658.7071156742</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387707.8150617519</v>
+        <v>664658.7071156743</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387707.8150617519</v>
+        <v>664658.7071156742</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664658.7071156742</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664658.7071156744</v>
+        <v>664658.7071156745</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>664658.7071156743</v>
+        <v>664658.7071156744</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83977.98621274221</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="C2" t="n">
-        <v>83977.98621274222</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="D2" t="n">
-        <v>83977.98621274217</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="E2" t="n">
-        <v>83977.98621274221</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="F2" t="n">
-        <v>83977.98621274221</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="G2" t="n">
+        <v>143923.1563360338</v>
+      </c>
+      <c r="H2" t="n">
         <v>143923.1563360339</v>
       </c>
-      <c r="H2" t="n">
-        <v>143923.1563360338</v>
-      </c>
       <c r="I2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="J2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="K2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="L2" t="n">
+        <v>143923.1563360338</v>
+      </c>
+      <c r="M2" t="n">
         <v>143923.1563360339</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143923.1563360338</v>
       </c>
       <c r="N2" t="n">
         <v>143923.1563360339</v>
       </c>
       <c r="O2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="P2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>176041.1847175274</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106776.3355122783</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>35512.78294977724</v>
+        <v>137442.4307917771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>93751.32501729493</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="C4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450601</v>
       </c>
       <c r="D4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="E4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450602</v>
       </c>
       <c r="F4" t="n">
-        <v>19614.34269859507</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="G4" t="n">
-        <v>34011.00713450602</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="H4" t="n">
         <v>34011.00713450602</v>
       </c>
       <c r="I4" t="n">
-        <v>34011.00713450602</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="J4" t="n">
         <v>34011.00713450603</v>
       </c>
       <c r="K4" t="n">
-        <v>34011.00713450602</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="L4" t="n">
         <v>34011.00713450603</v>
@@ -26456,7 +26456,7 @@
         <v>34011.00713450603</v>
       </c>
       <c r="O4" t="n">
-        <v>34011.00713450602</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="P4" t="n">
         <v>34011.00713450603</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41879.94747728384</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="C5" t="n">
-        <v>41879.94747728384</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="D5" t="n">
-        <v>41879.94747728384</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>8252.347477283849</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="F5" t="n">
-        <v>8252.347477283849</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="G5" t="n">
         <v>31938.43463691141</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23002.3474438899</v>
+        <v>-139814.6596394167</v>
       </c>
       <c r="C6" t="n">
-        <v>22483.69603686331</v>
+        <v>36226.5250781107</v>
       </c>
       <c r="D6" t="n">
-        <v>22483.69603686325</v>
+        <v>36226.52507811063</v>
       </c>
       <c r="E6" t="n">
-        <v>56111.29603686329</v>
+        <v>69854.12507811062</v>
       </c>
       <c r="F6" t="n">
-        <v>56111.29603686329</v>
+        <v>69854.12507811064</v>
       </c>
       <c r="G6" t="n">
-        <v>-28802.62094766184</v>
+        <v>69854.12507811061</v>
       </c>
       <c r="H6" t="n">
-        <v>77973.71456461641</v>
+        <v>69854.12507811071</v>
       </c>
       <c r="I6" t="n">
-        <v>77973.71456461641</v>
+        <v>69854.12507811064</v>
       </c>
       <c r="J6" t="n">
-        <v>42460.93161483917</v>
+        <v>-67588.30571366646</v>
       </c>
       <c r="K6" t="n">
-        <v>77973.71456461638</v>
+        <v>69854.12507811061</v>
       </c>
       <c r="L6" t="n">
-        <v>77973.71456461646</v>
+        <v>69854.12507811061</v>
       </c>
       <c r="M6" t="n">
-        <v>77973.71456461638</v>
+        <v>69854.12507811065</v>
       </c>
       <c r="N6" t="n">
-        <v>77973.71456461646</v>
+        <v>69854.12507811069</v>
       </c>
       <c r="O6" t="n">
-        <v>-15777.61045267846</v>
+        <v>69854.12507811061</v>
       </c>
       <c r="P6" t="n">
-        <v>77973.71456461646</v>
+        <v>69854.12507811058</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="G4" t="n">
         <v>525.3032012649903</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974317</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>135.7293992974317</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>135.7293992974317</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>130.2453831642022</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7293992974317</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.2453831642022</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>135.7293992974317</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974317</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>34.85926832931628</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35017,25 +35017,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>69.38260888833739</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O6" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974317</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>130.2453831642022</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O8" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7293992974317</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.3826088883374</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>57.51958086843889</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7293992974317</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>69.38260888833739</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>135.7293992974317</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7293992974317</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L14" t="n">
-        <v>34.85926832931631</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>135.7293992974317</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7293992974317</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L15" t="n">
-        <v>130.2453831642022</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>135.7293992974317</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>135.7293992974317</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>135.7293992974317</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>333.3672301212949</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -35980,10 +35980,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36141,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36217,7 +36217,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>101.5585911716093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36454,10 +36454,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>212.9515651312839</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O27" t="n">
         <v>396.1615664486372</v>
@@ -36694,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -36849,7 +36849,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P29" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q29" t="n">
         <v>95.38611483488586</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
@@ -36925,10 +36925,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>312.9348705146615</v>
       </c>
       <c r="P30" t="n">
-        <v>148.5819430157098</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>159.3652826117113</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37165,7 +37165,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>148.5819430157098</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
         <v>159.3652826117113</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37387,10 +37387,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
@@ -37402,10 +37402,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>212.9515651312839</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37876,7 +37876,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>286.2903193893735</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38107,13 +38107,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5819430157098</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
         <v>159.3652826117113</v>
